--- a/src/test/Resource/TestData/testDataSheet.xlsx
+++ b/src/test/Resource/TestData/testDataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11325" windowHeight="3525" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="InvalidLoginDetails" sheetId="5" r:id="rId5"/>
     <sheet name="HSLogin" sheetId="6" r:id="rId6"/>
     <sheet name="HRMSLogin" sheetId="7" r:id="rId7"/>
+    <sheet name="EMPID" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>TC_ID</t>
   </si>
@@ -218,6 +219,9 @@
   </si>
   <si>
     <t>1104020</t>
+  </si>
+  <si>
+    <t>EMP</t>
   </si>
 </sst>
 </file>
@@ -301,6 +305,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -348,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1106,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1200,4 +1207,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>